--- a/paradigms/paradigms_excel/complex_tenses.xlsx
+++ b/paradigms/paradigms_excel/complex_tenses.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hovsep/Google Drive/Coding/Verbs_Paradigms/paradigms_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hovsep/Google Drive/Coding/Verbs_Paradigms/Public/paradigms/paradigms_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D11D520-EEE7-0344-B895-6A4C8396ED47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB3F720-C00C-A543-94A3-D1FE50CF78E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="1160" windowWidth="28160" windowHeight="15240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
   <si>
     <t>Verb shape</t>
   </si>
@@ -63,9 +63,6 @@
     <t>past imperfect negative participle</t>
   </si>
   <si>
-    <t>synthetic-negative past imperfective</t>
-  </si>
-  <si>
     <t>compound past 1</t>
   </si>
   <si>
@@ -93,15 +90,9 @@
     <t>pluperfect 1</t>
   </si>
   <si>
-    <t>past imperfective</t>
-  </si>
-  <si>
     <t>negative pluperfect 1</t>
   </si>
   <si>
-    <t>negative past imperfective</t>
-  </si>
-  <si>
     <t>pluperfect 2</t>
   </si>
   <si>
@@ -178,6 +169,9 @@
   </si>
   <si>
     <t>negative past imperfect</t>
+  </si>
+  <si>
+    <t>synthetic-negative past imperfect</t>
   </si>
 </sst>
 </file>
@@ -584,7 +578,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>8</v>
@@ -592,33 +586,33 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>8</v>
@@ -626,33 +620,33 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>8</v>
@@ -660,33 +654,33 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>8</v>
@@ -694,33 +688,33 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>8</v>
@@ -728,198 +722,198 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
